--- a/HW1.xlsx
+++ b/HW1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\PracTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A15ADD7-3D50-4B6C-B0D2-349CF868DDFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A71FD0-E992-4DAF-A939-61AF559A3FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32145" yWindow="5085" windowWidth="21600" windowHeight="7605" xr2:uid="{DCC31862-E8A2-4D5F-9399-E6952DD49B2D}"/>
+    <workbookView xWindow="33870" yWindow="7020" windowWidth="21600" windowHeight="7605" xr2:uid="{DCC31862-E8A2-4D5F-9399-E6952DD49B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>dgsdfbvsd</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C756565-49BC-4343-B75F-1CBE4E9F20E8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +403,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
